--- a/Excel Formulas Examples of Comprehension.xlsx
+++ b/Excel Formulas Examples of Comprehension.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99094714e0505a96/Desktop/Data Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9F09071A-4ADD-4821-80AE-A8401A9D7A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2E04A69-43DC-4308-8354-EEBFD61B1D0E}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{9F09071A-4ADD-4821-80AE-A8401A9D7A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37134CF5-C9E2-4EBD-973F-781391AE3437}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="16440" activeTab="10" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="96">
   <si>
     <t>FirstName</t>
   </si>
@@ -272,9 +272,6 @@
     <t>TRIM(C2)</t>
   </si>
   <si>
-    <t>It just removes unwanted spaces on both sides</t>
-  </si>
-  <si>
     <t>TEXT(H2,"dd/mm/yyyy")</t>
   </si>
   <si>
@@ -330,6 +327,33 @@
   </si>
   <si>
     <t>LEN</t>
+  </si>
+  <si>
+    <t>FORMULAS LOCATED IN CELLS J3 AND K3</t>
+  </si>
+  <si>
+    <t>FORMULAS LOCATED IN CELLS J2 AND K2</t>
+  </si>
+  <si>
+    <t>FORMULAS LOCATED IN CELL J2</t>
+  </si>
+  <si>
+    <t>FORMULAS LOCATED IN CELLS K2, L2 AND M2</t>
+  </si>
+  <si>
+    <t>FORMULA LOCATED IN CELL J2</t>
+  </si>
+  <si>
+    <t>FORMULAS LOCATED IN CELLS J2 AND L2</t>
+  </si>
+  <si>
+    <t>FORMULAS LOCATED IN CELLS J2, K2 AND L2</t>
+  </si>
+  <si>
+    <t>FORMULAS LOCATED IN CELLS J2, K2, AND L2</t>
+  </si>
+  <si>
+    <t>It removes unwanted spaces on both sides</t>
   </si>
 </sst>
 </file>
@@ -354,12 +378,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -374,12 +404,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,19 +731,28 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -738,13 +781,13 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
         <v>79</v>
       </c>
-      <c r="K1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -781,7 +824,7 @@
         <v>35040</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -818,7 +861,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -847,7 +890,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -876,7 +919,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -905,7 +948,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -934,7 +977,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -963,7 +1006,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -992,7 +1035,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1021,8 +1064,14 @@
         <v>40800</v>
       </c>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1031,19 +1080,20 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1072,16 +1122,16 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1122,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1151,7 +1201,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1180,7 +1230,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1209,7 +1259,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1238,7 +1288,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1267,7 +1317,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1296,7 +1346,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1325,7 +1375,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1352,6 +1402,11 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1364,10 +1419,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,9 +1438,10 @@
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1414,13 +1470,13 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
         <v>83</v>
       </c>
-      <c r="K1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1457,7 +1513,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1493,7 +1549,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1529,7 +1585,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1565,7 +1621,7 @@
         <v>4152</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1601,7 +1657,7 @@
         <v>4258</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1637,7 +1693,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1673,7 +1729,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1709,7 +1765,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1743,6 +1799,11 @@
       <c r="K10">
         <f t="shared" si="0"/>
         <v>3053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1755,10 +1816,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,9 +1835,10 @@
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1805,13 +1867,13 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
         <v>81</v>
       </c>
-      <c r="K1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1843,12 +1905,12 @@
         <f t="array" ref="J2:J10">IF(D2:D10 &gt; 30, "Old", "Young")</f>
         <v>Young</v>
       </c>
-      <c r="K2" t="str" cm="1">
-        <f t="array" ref="K2:K10">_xlfn.IFS(F2:F10 = "Salesman", "Sales", F2:F10 = "HR", "Fire Immediately?", F2:F10 = "Regional Manager", "Give Christmas Bonus")</f>
+      <c r="K2" s="6" t="str" cm="1">
+        <f t="array" ref="K2:K10">_xlfn.IFS(F2:F10="Salesman","Sales",F2:F10="HR","Fire Immediately?",F2:F10="Regional Manager","Give Christmas Bonus",F2:F10="Receptionist","Hero",F2:F10="Accountant","$",F2:F10="Supplier Relations","Negotiator")</f>
         <v>Sales</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1879,11 +1941,11 @@
       <c r="J3" t="str">
         <v>Young</v>
       </c>
-      <c r="K3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="6" t="str">
+        <v>Hero</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1914,11 +1976,11 @@
       <c r="J4" t="str">
         <v>Young</v>
       </c>
-      <c r="K4" t="str">
+      <c r="K4" s="6" t="str">
         <v>Sales</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1949,11 +2011,11 @@
       <c r="J5" t="str">
         <v>Old</v>
       </c>
-      <c r="K5" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="6" t="str">
+        <v>$</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1984,11 +2046,11 @@
       <c r="J6" t="str">
         <v>Old</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K6" s="6" t="str">
         <v>Fire Immediately?</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2019,11 +2081,11 @@
       <c r="J7" t="str">
         <v>Old</v>
       </c>
-      <c r="K7" t="str">
+      <c r="K7" s="6" t="str">
         <v>Give Christmas Bonus</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2054,11 +2116,11 @@
       <c r="J8" t="str">
         <v>Old</v>
       </c>
-      <c r="K8" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="6" t="str">
+        <v>Negotiator</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2089,11 +2151,11 @@
       <c r="J9" t="str">
         <v>Old</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9" s="6" t="str">
         <v>Sales</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2124,8 +2186,13 @@
       <c r="J10" t="str">
         <v>Old</v>
       </c>
-      <c r="K10" t="e">
-        <v>#N/A</v>
+      <c r="K10" s="6" t="str">
+        <v>$</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2138,15 +2205,26 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="117.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2178,7 +2256,7 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s">
         <v>34</v>
@@ -2471,6 +2549,11 @@
       </c>
       <c r="J10">
         <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K16" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2483,19 +2566,20 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="10" max="10" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2527,16 +2611,16 @@
         <v>37</v>
       </c>
       <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" t="s">
-        <v>86</v>
-      </c>
       <c r="M1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2580,7 +2664,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2621,7 +2705,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2662,7 +2746,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2703,7 +2787,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2744,7 +2828,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2785,7 +2869,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2826,7 +2910,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2867,7 +2951,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2906,6 +2990,11 @@
       </c>
       <c r="M10" t="str">
         <v>2003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N16" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2918,16 +3007,18 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2959,7 +3050,7 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3265,6 +3356,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H13" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3276,16 +3372,17 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -3320,7 +3417,7 @@
         <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3610,6 +3707,11 @@
       </c>
       <c r="J10" t="str">
         <v>Malone</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3622,10 +3724,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3640,7 +3742,8 @@
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3707,7 +3810,7 @@
         <f>CONCATENATE(B2, ".",C2, "@gmail.com")</f>
         <v>Jim.Halpert@gmail.com</v>
       </c>
-      <c r="L2" t="str">
+      <c r="K2" t="str">
         <f>CONCATENATE(B2,C2)</f>
         <v>JimHalpert</v>
       </c>
@@ -3744,8 +3847,8 @@
         <f t="shared" ref="J3:J10" si="0">CONCATENATE(B3, ".",C3, "@gmail.com")</f>
         <v>Pam.Beasley@gmail.com</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L10" si="1">CONCATENATE(B3,C3)</f>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K10" si="1">CONCATENATE(B3,C3)</f>
         <v>PamBeasley</v>
       </c>
     </row>
@@ -3781,7 +3884,7 @@
         <f t="shared" si="0"/>
         <v>Dwight.Schrute@gmail.com</v>
       </c>
-      <c r="L4" t="str">
+      <c r="K4" t="str">
         <f t="shared" si="1"/>
         <v>DwightSchrute</v>
       </c>
@@ -3818,7 +3921,7 @@
         <f t="shared" si="0"/>
         <v>Angela.Martin@gmail.com</v>
       </c>
-      <c r="L5" t="str">
+      <c r="K5" t="str">
         <f t="shared" si="1"/>
         <v>AngelaMartin</v>
       </c>
@@ -3855,7 +3958,7 @@
         <f t="shared" si="0"/>
         <v>Toby.Flenderson@gmail.com</v>
       </c>
-      <c r="L6" t="str">
+      <c r="K6" t="str">
         <f t="shared" si="1"/>
         <v>TobyFlenderson</v>
       </c>
@@ -3892,7 +3995,7 @@
         <f t="shared" si="0"/>
         <v>Michael.Scott@gmail.com</v>
       </c>
-      <c r="L7" t="str">
+      <c r="K7" t="str">
         <f t="shared" si="1"/>
         <v>MichaelScott</v>
       </c>
@@ -3929,7 +4032,7 @@
         <f t="shared" si="0"/>
         <v>Meredith.Palmer@gmail.com</v>
       </c>
-      <c r="L8" t="str">
+      <c r="K8" t="str">
         <f t="shared" si="1"/>
         <v>MeredithPalmer</v>
       </c>
@@ -3966,7 +4069,7 @@
         <f t="shared" si="0"/>
         <v>Stanley.Hudson@gmail.com</v>
       </c>
-      <c r="L9" t="str">
+      <c r="K9" t="str">
         <f t="shared" si="1"/>
         <v>StanleyHudson</v>
       </c>
@@ -4003,7 +4106,7 @@
         <f t="shared" si="0"/>
         <v>Kevin.Malone@gmail.com</v>
       </c>
-      <c r="L10" t="str">
+      <c r="K10" t="str">
         <f t="shared" si="1"/>
         <v>KevinMalone</v>
       </c>
@@ -4018,6 +4121,11 @@
       <c r="H12" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4030,10 +4138,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4050,9 +4158,10 @@
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -4081,16 +4190,16 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -4131,7 +4240,7 @@
         <v>11-2-2001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -4169,7 +4278,7 @@
         <v>10-3-1999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -4207,7 +4316,7 @@
         <v>7-4-2000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -4245,7 +4354,7 @@
         <v>1-5-2000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -4283,7 +4392,7 @@
         <v>5-6-2001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -4321,7 +4430,7 @@
         <v>5-6-2001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -4359,7 +4468,7 @@
         <v>11-8-2003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -4397,7 +4506,7 @@
         <v>6-9-2002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -4435,25 +4544,28 @@
         <v>8-10-2003</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
+      <c r="M16" s="5" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H17" s="3"/>
@@ -4482,15 +4594,18 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="39.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -4519,16 +4634,16 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
         <v>73</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>74</v>
       </c>
-      <c r="L1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -4569,7 +4684,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -4598,7 +4713,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -4627,7 +4742,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -4656,7 +4771,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -4685,7 +4800,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -4714,7 +4829,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -4743,7 +4858,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -4772,7 +4887,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -4799,6 +4914,11 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Formulas Examples of Comprehension.xlsx
+++ b/Excel Formulas Examples of Comprehension.xlsx
@@ -1808,6 +1808,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel Formulas Examples of Comprehension.xlsx
+++ b/Excel Formulas Examples of Comprehension.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99094714e0505a96/Desktop/Data Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{CF454019-2C53-4815-AD70-E69156CE264D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{CF454019-2C53-4815-AD70-E69156CE264D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95A19483-C336-4960-95BA-655E174426CC}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="16440" activeTab="10" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="16440" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -733,7 +733,7 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -1421,7 +1421,7 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
